--- a/biology/Microbiologie/Didiniidae/Didiniidae.xlsx
+++ b/biology/Microbiologie/Didiniidae/Didiniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Didiniidae sont une famille de Ciliés de la classe des Gymnostomatea et de l'ordre des Haptorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Didinium, formé du préfixe di-, deux, du grec δίνη / dini, « tourbillon, vortex », suffixé de la désinence latine -ium, « relatif à », littéralement « qui possède deux tourbillons », en référence à la présence de deux bandes de cils autour de l'animalcule[note 1].
 </t>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kahl décrit ainsi le genre type 
-« Didinium chlorelligerum Kahl, 1935. Animalcule de 100 μm[note 2], globuleux, à bec pointu contenant des trichocystes courts (8 μm) à l'extrémité et des trichites longs (40 μm) délicats s'ouvrant à mi-hauteur. Ectoplasme avec des protrichocystes en forme de bâtonnet extrêmement délicats. Entoplasme sombre, contenant toujours des zoochlorelles (algue verte)[1]. »
-Didinium ressemble à un tonneau (ou à une toupie). L'ouverture buccale n'est pas permanente et ne se forme que lors de l'ingestion de proies ; l'ouverture orale se dilate alors en forme de cône portant la bouche à son sommet. La ciliation est réduite à deux bandes étroites de cils qui encerclent le corps. Le macronucléus est en forme de fer à cheval ou de saucisse. Une vacuole contractile postérieure[2].
+« Didinium chlorelligerum Kahl, 1935. Animalcule de 100 μm[note 2], globuleux, à bec pointu contenant des trichocystes courts (8 μm) à l'extrémité et des trichites longs (40 μm) délicats s'ouvrant à mi-hauteur. Ectoplasme avec des protrichocystes en forme de bâtonnet extrêmement délicats. Entoplasme sombre, contenant toujours des zoochlorelles (algue verte). »
+Didinium ressemble à un tonneau (ou à une toupie). L'ouverture buccale n'est pas permanente et ne se forme que lors de l'ingestion de proies ; l'ouverture orale se dilate alors en forme de cône portant la bouche à son sommet. La ciliation est réduite à deux bandes étroites de cils qui encerclent le corps. Le macronucléus est en forme de fer à cheval ou de saucisse. Une vacuole contractile postérieure.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Didinium est présent aussi bien en eaux douce qu'en eau salée[1].
-Les Didiniidae sont répandus dans toutes les mers et océans[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Didinium est présent aussi bien en eaux douce qu'en eau salée.
+Les Didiniidae sont répandus dans toutes les mers et océans.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (17 décembre 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (17 décembre 2022) :
 Choanostoma Wang, 1931
 Cyclotrichium Meunier, 1910
 Dicyclotrichium Xu, Song &amp; Hu, 2005
@@ -646,9 +666,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Didiniidae Poche, 1913[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Didiniidae Poche, 1913.
 </t>
         </is>
       </c>
